--- a/dataset/region/sexo_edad_atacama.xlsx
+++ b/dataset/region/sexo_edad_atacama.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfurn\Desktop\proyectovdd\errores\dashboard_seguridad\dataset\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57AB9FCF-7404-4AC9-8BF8-572D377B28AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54217FD-EF2B-496F-B6D6-6B8FAE157DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4009DE34-4272-4F33-96DD-371C95A6940D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4009DE34-4272-4F33-96DD-371C95A6940D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -188,26 +188,26 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,3193 +526,3193 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:U49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="2">
         <v>2005</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>2006</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>2007</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="3">
         <v>2008</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="3">
         <v>2009</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="3">
         <v>2010</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="3">
         <v>2011</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="3">
         <v>2012</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="3">
         <v>2013</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="3">
         <v>2014</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="3">
         <v>2015</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="3">
         <v>2016</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="3">
         <v>2017</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="3">
         <v>2018</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="3">
         <v>2019</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="3">
         <v>2020</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="3">
         <v>2021</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>108</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>95</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>173</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>170</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>182</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>211</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <v>245</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <v>149</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <v>145</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>135</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="6">
         <v>133</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="6">
         <v>109</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="6">
         <v>139</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="6">
         <v>132</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="6">
         <v>122</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="6">
         <v>90</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="6">
         <v>94</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="6">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>160</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>154</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>234</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>309</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>344</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>356</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>354</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>310</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>278</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>229</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="6">
         <v>225</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="6">
         <v>204</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="6">
         <v>199</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="6">
         <v>236</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="6">
         <v>244</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="6">
         <v>117</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="6">
         <v>139</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="6">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>1256</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>1177</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>1623</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>1803</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>2107</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>2357</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>2423</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>2371</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>2411</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>1984</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="6">
         <v>1676</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="6">
         <v>1783</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="6">
         <v>1805</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="6">
         <v>1832</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="6">
         <v>1958</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="6">
         <v>1728</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="6">
         <v>1782</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="6">
         <v>1860</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>1737</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>1533</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>1963</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>2084</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>2534</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>2702</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>2803</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>2799</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>2757</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>2083</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="6">
         <v>1924</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="6">
         <v>2204</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="6">
         <v>2174</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="6">
         <v>2093</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="6">
         <v>2278</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="6">
         <v>2097</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="6">
         <v>2132</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="6">
         <v>2764</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>853</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>688</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>984</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>1138</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>1478</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>1503</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>1637</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>1673</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <v>1593</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>1294</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="6">
         <v>1322</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="6">
         <v>1416</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="6">
         <v>1413</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="6">
         <v>1374</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="6">
         <v>1652</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="6">
         <v>1391</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="6">
         <v>1436</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="6">
         <v>1873</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>104</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>97</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>129</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>162</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>226</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>254</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>229</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>252</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>234</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>185</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="6">
         <v>196</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="6">
         <v>204</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <v>244</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="6">
         <v>227</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="6">
         <v>291</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="6">
         <v>275</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="6">
         <v>317</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="6">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>0</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>3</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>2</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>5</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>1</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="6">
         <v>2</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="6">
         <v>3</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="6">
         <v>5</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="6">
         <v>0</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="6">
         <v>2</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="6">
         <v>1</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="6">
         <v>4</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>4218</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>3745</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>5106</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>5666</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>6871</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>7383</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="7">
         <v>7694</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
         <v>7556</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="7">
         <v>7423</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="7">
         <v>5911</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="7">
         <v>5478</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="7">
         <v>5923</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="7">
         <v>5979</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="7">
         <v>5894</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="7">
         <v>6547</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="7">
         <v>5699</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="7">
         <v>5904</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="7">
         <v>7257</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>129</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>130</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>201</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>181</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>228</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>223</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <v>269</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>206</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <v>180</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>113</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="6">
         <v>127</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="6">
         <v>129</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="6">
         <v>114</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="6">
         <v>152</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="6">
         <v>106</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="6">
         <v>47</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="6">
         <v>54</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>170</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>191</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>267</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>266</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>303</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>295</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>266</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>225</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>195</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>199</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="6">
         <v>182</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="6">
         <v>215</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="6">
         <v>190</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="6">
         <v>210</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="6">
         <v>277</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="6">
         <v>132</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="6">
         <v>120</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="6">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>1167</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>1183</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>1581</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>1847</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>2087</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>2148</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="6">
         <v>2390</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <v>2569</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="6">
         <v>2265</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>1934</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="6">
         <v>1700</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="6">
         <v>1722</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="6">
         <v>1648</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="6">
         <v>1791</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="6">
         <v>1871</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="6">
         <v>1549</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="6">
         <v>1405</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="6">
         <v>1797</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>1793</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>1566</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>2019</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>2160</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>2627</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>2635</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="6">
         <v>3056</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="6">
         <v>3113</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="6">
         <v>2922</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>2391</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="6">
         <v>2173</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="6">
         <v>2171</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="6">
         <v>2189</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="6">
         <v>2304</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="6">
         <v>2382</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="6">
         <v>2041</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="6">
         <v>1875</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="6">
         <v>2871</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>1178</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>1038</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>1307</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>1509</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>1952</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>2104</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="6">
         <v>2400</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <v>2523</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="6">
         <v>2408</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>1987</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="6">
         <v>1892</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="6">
         <v>1944</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="6">
         <v>1936</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="6">
         <v>1900</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="6">
         <v>2097</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="6">
         <v>1882</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="6">
         <v>1723</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="6">
         <v>2475</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>216</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>204</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>252</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="6">
         <v>268</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>411</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>412</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="6">
         <v>449</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="6">
         <v>451</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="6">
         <v>441</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>341</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="6">
         <v>350</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="6">
         <v>401</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="6">
         <v>422</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="6">
         <v>468</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="6">
         <v>527</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="6">
         <v>515</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="6">
         <v>458</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="6">
         <v>688</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <v>0</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <v>0</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <v>2</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="6">
         <v>4</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <v>1</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>3</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="6">
         <v>2</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="6">
         <v>0</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="6">
         <v>2</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="6">
         <v>4</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="6">
         <v>1</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="6">
         <v>0</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="6">
         <v>1</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>4654</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="7">
         <v>4313</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>5627</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>6231</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="7">
         <v>7608</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="7">
         <v>7819</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="7">
         <v>8834</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="7">
         <v>9088</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="7">
         <v>8412</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="7">
         <v>6968</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="7">
         <v>6426</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="7">
         <v>6582</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="7">
         <v>6501</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="7">
         <v>6829</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="7">
         <v>7261</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="7">
         <v>6166</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="7">
         <v>5636</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="7">
         <v>8145</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>237</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>225</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>374</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <v>351</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <v>410</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>434</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="6">
         <v>514</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <v>355</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="6">
         <v>325</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>248</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="6">
         <v>260</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="6">
         <v>238</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="6">
         <v>253</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="6">
         <v>284</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="6">
         <v>228</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="6">
         <v>137</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="6">
         <v>148</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="6">
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>330</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>345</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="6">
         <v>501</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="6">
         <v>575</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="6">
         <v>647</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="6">
         <v>651</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="6">
         <v>620</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="6">
         <v>535</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="6">
         <v>473</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>428</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="6">
         <v>407</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="6">
         <v>419</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="6">
         <v>389</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="6">
         <v>446</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="6">
         <v>521</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="6">
         <v>249</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="6">
         <v>259</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="6">
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <v>2423</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <v>2360</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="6">
         <v>3204</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="6">
         <v>3650</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="6">
         <v>4194</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="6">
         <v>4505</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="6">
         <v>4813</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="6">
         <v>4940</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="6">
         <v>4676</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>3918</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="6">
         <v>3376</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="6">
         <v>3505</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="6">
         <v>3453</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="6">
         <v>3623</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="6">
         <v>3829</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="6">
         <v>3277</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="6">
         <v>3187</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="6">
         <v>3657</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
         <v>3530</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="6">
         <v>3099</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="6">
         <v>3982</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="6">
         <v>4244</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="6">
         <v>5161</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="6">
         <v>5337</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="6">
         <v>5859</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="6">
         <v>5912</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="6">
         <v>5679</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>4474</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="6">
         <v>4097</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="6">
         <v>4375</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="6">
         <v>4363</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="6">
         <v>4397</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="6">
         <v>4660</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="6">
         <v>4138</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21" s="6">
         <v>4007</v>
       </c>
-      <c r="U21" s="5">
+      <c r="U21" s="6">
         <v>5635</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="6">
         <v>2031</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <v>1726</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6">
         <v>2291</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="6">
         <v>2647</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="6">
         <v>3430</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="6">
         <v>3607</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="6">
         <v>4037</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="6">
         <v>4196</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="6">
         <v>4001</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>3281</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="6">
         <v>3214</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="6">
         <v>3360</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="6">
         <v>3349</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="6">
         <v>3274</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="6">
         <v>3749</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="6">
         <v>3273</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="6">
         <v>3159</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="6">
         <v>4348</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="6">
         <v>320</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <v>301</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="6">
         <v>381</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="6">
         <v>430</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="6">
         <v>637</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="6">
         <v>666</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="6">
         <v>678</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="6">
         <v>703</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="6">
         <v>675</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>526</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="6">
         <v>546</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="6">
         <v>605</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="6">
         <v>666</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="6">
         <v>695</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="6">
         <v>818</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="6">
         <v>790</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="6">
         <v>775</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U23" s="6">
         <v>1063</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
         <v>1</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <v>2</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="6">
         <v>0</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="6">
         <v>0</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="6">
         <v>0</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="6">
         <v>2</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="6">
         <v>7</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="6">
         <v>3</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="6">
         <v>6</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>4</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="6">
         <v>4</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="6">
         <v>3</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="6">
         <v>7</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="6">
         <v>4</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="6">
         <v>3</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="6">
         <v>1</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="6">
         <v>5</v>
       </c>
-      <c r="U24" s="5">
+      <c r="U24" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="7">
         <v>8872</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="7">
         <v>8058</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="7">
         <v>10733</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="7">
         <v>11897</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="7">
         <v>14479</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="7">
         <v>15202</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="7">
         <v>16528</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="7">
         <v>16644</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="7">
         <v>15835</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="7">
         <v>12879</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="7">
         <v>11904</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="7">
         <v>12505</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="7">
         <v>12480</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="7">
         <v>12723</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="7">
         <v>13808</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="7">
         <v>11865</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="7">
         <v>11540</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="7">
         <v>15402</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="6">
         <v>19</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="6">
         <v>26</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="6">
         <v>21</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="6">
         <v>24</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="6">
         <v>18</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="6">
         <v>8</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="6">
         <v>36</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="6">
         <v>19</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="6">
         <v>28</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>15</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="6">
         <v>21</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="6">
         <v>12</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="6">
         <v>1</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="6">
         <v>3</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="6">
         <v>3</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="6">
         <v>0</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="6">
         <v>3</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="6">
         <v>135</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="6">
         <v>128</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="6">
         <v>106</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="6">
         <v>176</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="6">
         <v>155</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="6">
         <v>182</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="6">
         <v>221</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="6">
         <v>219</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="6">
         <v>202</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>209</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="6">
         <v>147</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="6">
         <v>199</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="6">
         <v>117</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27" s="6">
         <v>178</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="6">
         <v>184</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="6">
         <v>69</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T27" s="6">
         <v>60</v>
       </c>
-      <c r="U27" s="5">
+      <c r="U27" s="6">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="6">
         <v>828</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="6">
         <v>797</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="6">
         <v>559</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="6">
         <v>567</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="6">
         <v>842</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="6">
         <v>941</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="6">
         <v>1037</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="6">
         <v>907</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="6">
         <v>868</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>855</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="6">
         <v>760</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="6">
         <v>868</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="6">
         <v>904</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q28" s="6">
         <v>1058</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="6">
         <v>1179</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="6">
         <v>849</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28" s="6">
         <v>744</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28" s="6">
         <v>607</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="6">
         <v>432</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="6">
         <v>428</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="6">
         <v>403</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="6">
         <v>426</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="6">
         <v>523</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="6">
         <v>582</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="6">
         <v>694</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="6">
         <v>655</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="6">
         <v>665</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="6">
         <v>654</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="6">
         <v>577</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="6">
         <v>693</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29" s="6">
         <v>726</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="6">
         <v>877</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="6">
         <v>995</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="6">
         <v>831</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29" s="6">
         <v>772</v>
       </c>
-      <c r="U29" s="5">
+      <c r="U29" s="6">
         <v>655</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <v>158</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="6">
         <v>166</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="6">
         <v>174</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="6">
         <v>161</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="6">
         <v>229</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="6">
         <v>269</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="6">
         <v>299</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>275</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>268</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="6">
         <v>263</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="6">
         <v>239</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="6">
         <v>270</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="6">
         <v>282</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q30" s="6">
         <v>353</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30" s="6">
         <v>425</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="6">
         <v>314</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30" s="6">
         <v>284</v>
       </c>
-      <c r="U30" s="5">
+      <c r="U30" s="6">
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
         <v>10</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="6">
         <v>14</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="6">
         <v>16</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="6">
         <v>23</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="6">
         <v>14</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="6">
         <v>12</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="6">
         <v>19</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="6">
         <v>25</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="6">
         <v>19</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="6">
         <v>17</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="6">
         <v>16</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="6">
         <v>22</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="6">
         <v>26</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Q31" s="6">
         <v>29</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="6">
         <v>30</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="6">
         <v>32</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31" s="6">
         <v>17</v>
       </c>
-      <c r="U31" s="5">
+      <c r="U31" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="6">
         <v>0</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="6">
         <v>0</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="6">
         <v>0</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="6">
         <v>0</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="6">
         <v>0</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="6">
         <v>0</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="6">
         <v>0</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="6">
         <v>0</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="6">
         <v>1</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="6">
         <v>3</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="6">
         <v>0</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="6">
         <v>0</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="6">
         <v>2</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="Q32" s="6">
         <v>0</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" s="6">
         <v>1</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="6">
         <v>0</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="6">
         <v>0</v>
       </c>
-      <c r="U32" s="5">
+      <c r="U32" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="7">
         <v>1582</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="7">
         <v>1559</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="7">
         <v>1279</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="7">
         <v>1377</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="7">
         <v>1781</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="7">
         <v>1994</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="7">
         <v>2306</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="7">
         <v>2100</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="7">
         <v>2051</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="7">
         <v>2016</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="7">
         <v>1760</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="7">
         <v>2064</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="7">
         <v>2058</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="7">
         <v>2498</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="7">
         <v>2817</v>
       </c>
-      <c r="S33" s="6">
+      <c r="S33" s="7">
         <v>2095</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="7">
         <v>1880</v>
       </c>
-      <c r="U33" s="6">
+      <c r="U33" s="7">
         <v>1646</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="6">
         <v>208</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="6">
         <v>228</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="6">
         <v>79</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="6">
         <v>71</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="6">
         <v>46</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="6">
         <v>69</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="6">
         <v>55</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="6">
         <v>25</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="6">
         <v>35</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="6">
         <v>24</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="6">
         <v>30</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="6">
         <v>29</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="6">
         <v>16</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="Q34" s="6">
         <v>8</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="6">
         <v>2</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="6">
         <v>2</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="6">
         <v>3</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="6">
         <v>915</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="6">
         <v>957</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="6">
         <v>817</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="6">
         <v>945</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="6">
         <v>887</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="6">
         <v>943</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="6">
         <v>1045</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="6">
         <v>685</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="6">
         <v>647</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="6">
         <v>710</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="6">
         <v>680</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="6">
         <v>705</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="6">
         <v>529</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="Q35" s="6">
         <v>512</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35" s="6">
         <v>537</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="6">
         <v>299</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T35" s="6">
         <v>220</v>
       </c>
-      <c r="U35" s="5">
+      <c r="U35" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="6">
         <v>8419</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="6">
         <v>6186</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="6">
         <v>4914</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="6">
         <v>5547</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="6">
         <v>6357</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="6">
         <v>6307</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="6">
         <v>5600</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="6">
         <v>4783</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="6">
         <v>4545</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="6">
         <v>4518</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="6">
         <v>3994</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="6">
         <v>4069</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="6">
         <v>3996</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="Q36" s="6">
         <v>3974</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R36" s="6">
         <v>4115</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="6">
         <v>2780</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T36" s="6">
         <v>2243</v>
       </c>
-      <c r="U36" s="5">
+      <c r="U36" s="6">
         <v>2236</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="6">
         <v>6690</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="6">
         <v>4889</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="6">
         <v>3557</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="6">
         <v>3941</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="6">
         <v>4120</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="6">
         <v>4081</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="6">
         <v>3887</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="6">
         <v>3441</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="6">
         <v>3156</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="6">
         <v>3166</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="6">
         <v>2841</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="6">
         <v>2928</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="6">
         <v>3271</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="Q37" s="6">
         <v>3671</v>
       </c>
-      <c r="R37" s="5">
+      <c r="R37" s="6">
         <v>3904</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S37" s="6">
         <v>2872</v>
       </c>
-      <c r="T37" s="5">
+      <c r="T37" s="6">
         <v>2520</v>
       </c>
-      <c r="U37" s="5">
+      <c r="U37" s="6">
         <v>2702</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="6">
         <v>2360</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="6">
         <v>1812</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="6">
         <v>1392</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="6">
         <v>1554</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="6">
         <v>1833</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="6">
         <v>1844</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="6">
         <v>1716</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="6">
         <v>1448</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="6">
         <v>1543</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="6">
         <v>1347</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="6">
         <v>1276</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="6">
         <v>1260</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="6">
         <v>1657</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="Q38" s="6">
         <v>1753</v>
       </c>
-      <c r="R38" s="5">
+      <c r="R38" s="6">
         <v>1953</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38" s="6">
         <v>1448</v>
       </c>
-      <c r="T38" s="5">
+      <c r="T38" s="6">
         <v>1184</v>
       </c>
-      <c r="U38" s="5">
+      <c r="U38" s="6">
         <v>1215</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="6">
         <v>162</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="6">
         <v>113</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="6">
         <v>73</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="6">
         <v>117</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="6">
         <v>95</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="6">
         <v>108</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="6">
         <v>139</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="6">
         <v>118</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="6">
         <v>100</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="6">
         <v>105</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="6">
         <v>85</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="6">
         <v>115</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="6">
         <v>131</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="Q39" s="6">
         <v>163</v>
       </c>
-      <c r="R39" s="5">
+      <c r="R39" s="6">
         <v>176</v>
       </c>
-      <c r="S39" s="5">
+      <c r="S39" s="6">
         <v>165</v>
       </c>
-      <c r="T39" s="5">
+      <c r="T39" s="6">
         <v>140</v>
       </c>
-      <c r="U39" s="5">
+      <c r="U39" s="6">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="6">
         <v>5</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="6">
         <v>11</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="6">
         <v>0</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="6">
         <v>2</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="6">
         <v>4</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="6">
         <v>1</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="6">
         <v>1</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="6">
         <v>1</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="6">
         <v>2</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="6">
         <v>1</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="6">
         <v>1</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="6">
         <v>1</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="6">
         <v>6</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="Q40" s="6">
         <v>1</v>
       </c>
-      <c r="R40" s="5">
+      <c r="R40" s="6">
         <v>0</v>
       </c>
-      <c r="S40" s="5">
+      <c r="S40" s="6">
         <v>0</v>
       </c>
-      <c r="T40" s="5">
+      <c r="T40" s="6">
         <v>1</v>
       </c>
-      <c r="U40" s="5">
+      <c r="U40" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="7">
         <v>18759</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="7">
         <v>14196</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="7">
         <v>10832</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="7">
         <v>12177</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="7">
         <v>13342</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="7">
         <v>13353</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="7">
         <v>12443</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="7">
         <v>10501</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="7">
         <v>10028</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="7">
         <v>9871</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="7">
         <v>8907</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="7">
         <v>9107</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41" s="7">
         <v>9606</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="Q41" s="7">
         <v>10082</v>
       </c>
-      <c r="R41" s="6">
+      <c r="R41" s="7">
         <v>10687</v>
       </c>
-      <c r="S41" s="6">
+      <c r="S41" s="7">
         <v>7566</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="7">
         <v>6311</v>
       </c>
-      <c r="U41" s="6">
+      <c r="U41" s="7">
         <v>6588</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="6">
         <v>227</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="6">
         <v>254</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="6">
         <v>100</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="6">
         <v>95</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="6">
         <v>64</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="6">
         <v>77</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="6">
         <v>91</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="6">
         <v>44</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="6">
         <v>63</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="6">
         <v>39</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="6">
         <v>51</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="6">
         <v>41</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P42" s="6">
         <v>17</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="Q42" s="6">
         <v>11</v>
       </c>
-      <c r="R42" s="5">
+      <c r="R42" s="6">
         <v>5</v>
       </c>
-      <c r="S42" s="5">
+      <c r="S42" s="6">
         <v>2</v>
       </c>
-      <c r="T42" s="5">
+      <c r="T42" s="6">
         <v>6</v>
       </c>
-      <c r="U42" s="5">
+      <c r="U42" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="6">
         <v>1050</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="6">
         <v>1085</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="6">
         <v>923</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="6">
         <v>1121</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="6">
         <v>1042</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="6">
         <v>1125</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="6">
         <v>1266</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="6">
         <v>904</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="6">
         <v>849</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="6">
         <v>919</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="6">
         <v>827</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="6">
         <v>904</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P43" s="6">
         <v>646</v>
       </c>
-      <c r="Q43" s="5">
+      <c r="Q43" s="6">
         <v>690</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R43" s="6">
         <v>721</v>
       </c>
-      <c r="S43" s="5">
+      <c r="S43" s="6">
         <v>368</v>
       </c>
-      <c r="T43" s="5">
+      <c r="T43" s="6">
         <v>280</v>
       </c>
-      <c r="U43" s="5">
+      <c r="U43" s="6">
         <v>423</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="6">
         <v>9247</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="6">
         <v>6983</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="6">
         <v>5473</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="6">
         <v>6114</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="6">
         <v>7199</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="6">
         <v>7248</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="6">
         <v>6637</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="6">
         <v>5690</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="6">
         <v>5413</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="6">
         <v>5373</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="6">
         <v>4754</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="6">
         <v>4937</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P44" s="6">
         <v>4900</v>
       </c>
-      <c r="Q44" s="5">
+      <c r="Q44" s="6">
         <v>5032</v>
       </c>
-      <c r="R44" s="5">
+      <c r="R44" s="6">
         <v>5294</v>
       </c>
-      <c r="S44" s="5">
+      <c r="S44" s="6">
         <v>3629</v>
       </c>
-      <c r="T44" s="5">
+      <c r="T44" s="6">
         <v>2987</v>
       </c>
-      <c r="U44" s="5">
+      <c r="U44" s="6">
         <v>2843</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="6">
         <v>7122</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="6">
         <v>5317</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="6">
         <v>3960</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="6">
         <v>4367</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="6">
         <v>4643</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="6">
         <v>4663</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="6">
         <v>4581</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="6">
         <v>4096</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="6">
         <v>3821</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="6">
         <v>3820</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="6">
         <v>3418</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="6">
         <v>3621</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P45" s="6">
         <v>3997</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="Q45" s="6">
         <v>4548</v>
       </c>
-      <c r="R45" s="5">
+      <c r="R45" s="6">
         <v>4899</v>
       </c>
-      <c r="S45" s="5">
+      <c r="S45" s="6">
         <v>3703</v>
       </c>
-      <c r="T45" s="5">
+      <c r="T45" s="6">
         <v>3292</v>
       </c>
-      <c r="U45" s="5">
+      <c r="U45" s="6">
         <v>3357</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="6">
         <v>2518</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="6">
         <v>1978</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="6">
         <v>1566</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="6">
         <v>1715</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="6">
         <v>2062</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="6">
         <v>2113</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="6">
         <v>2015</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="6">
         <v>1723</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="6">
         <v>1811</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="6">
         <v>1610</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="6">
         <v>1515</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="6">
         <v>1530</v>
       </c>
-      <c r="P46" s="5">
+      <c r="P46" s="6">
         <v>1939</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="Q46" s="6">
         <v>2106</v>
       </c>
-      <c r="R46" s="5">
+      <c r="R46" s="6">
         <v>2378</v>
       </c>
-      <c r="S46" s="5">
+      <c r="S46" s="6">
         <v>1762</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T46" s="6">
         <v>1468</v>
       </c>
-      <c r="U46" s="5">
+      <c r="U46" s="6">
         <v>1456</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="6">
         <v>172</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="6">
         <v>127</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="6">
         <v>89</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="6">
         <v>140</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="6">
         <v>109</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="6">
         <v>120</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="6">
         <v>158</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="6">
         <v>143</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="6">
         <v>119</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="6">
         <v>122</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="6">
         <v>101</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="6">
         <v>137</v>
       </c>
-      <c r="P47" s="5">
+      <c r="P47" s="6">
         <v>157</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="Q47" s="6">
         <v>192</v>
       </c>
-      <c r="R47" s="5">
+      <c r="R47" s="6">
         <v>206</v>
       </c>
-      <c r="S47" s="5">
+      <c r="S47" s="6">
         <v>197</v>
       </c>
-      <c r="T47" s="5">
+      <c r="T47" s="6">
         <v>157</v>
       </c>
-      <c r="U47" s="5">
+      <c r="U47" s="6">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="6">
         <v>5</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="6">
         <v>11</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="6">
         <v>0</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="6">
         <v>2</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="6">
         <v>4</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="6">
         <v>1</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="6">
         <v>1</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="6">
         <v>1</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="6">
         <v>3</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="6">
         <v>4</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="6">
         <v>1</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48" s="6">
         <v>1</v>
       </c>
-      <c r="P48" s="5">
+      <c r="P48" s="6">
         <v>8</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="Q48" s="6">
         <v>1</v>
       </c>
-      <c r="R48" s="5">
+      <c r="R48" s="6">
         <v>1</v>
       </c>
-      <c r="S48" s="5">
+      <c r="S48" s="6">
         <v>0</v>
       </c>
-      <c r="T48" s="5">
+      <c r="T48" s="6">
         <v>1</v>
       </c>
-      <c r="U48" s="5">
+      <c r="U48" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="7">
         <v>20341</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="7">
         <v>15755</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="7">
         <v>12111</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="7">
         <v>13554</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="7">
         <v>15123</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="7">
         <v>15347</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="7">
         <v>14749</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="7">
         <v>12601</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L49" s="7">
         <v>12079</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M49" s="7">
         <v>11887</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N49" s="7">
         <v>10667</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49" s="7">
         <v>11171</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49" s="7">
         <v>11664</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="Q49" s="7">
         <v>12580</v>
       </c>
-      <c r="R49" s="6">
+      <c r="R49" s="7">
         <v>13504</v>
       </c>
-      <c r="S49" s="6">
+      <c r="S49" s="7">
         <v>9661</v>
       </c>
-      <c r="T49" s="6">
+      <c r="T49" s="7">
         <v>8191</v>
       </c>
-      <c r="U49" s="6">
+      <c r="U49" s="7">
         <v>8234</v>
       </c>
     </row>
